--- a/NeapWorkflow_GET_MarineTerrestrial_Pre-1750_250m.xlsx
+++ b/NeapWorkflow_GET_MarineTerrestrial_Pre-1750_250m.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/new298_csiro_au/Documents/Code/Python/NEAP/ecosystem-typology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new298\OneDrive - CSIRO\Code\Python\NEAP\ecosystem-typology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{0CEF8FDF-E961-4D0E-8614-D9B72B3FB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AFC258-0BEB-4A63-8013-6652025B201E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEDE4B-5606-489A-9BF2-B099750D1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23016" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="3135" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>//fs1-cbr.nexus.csiro.au/{ev-neap}/work/extent/inputs/raw/Marine/NVE-Benthic/NESP-MERI_Natural_Values_Ecosystems_withVAT.tif</t>
   </si>
   <si>
-    <t>//fs1-cbr.nexus.csiro.au/{ev-neap}/work/extent/processing/NEAP_intermediate/NVIS_PRE1750_IUCNGET_DK_20240714.tif</t>
-  </si>
-  <si>
     <t>subject_label</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\overlay_grids\Terrestrial_Pre1750_EPSG3577_250m.tif</t>
+  </si>
+  <si>
+    <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\processing\NEAP_intermediate\NVIS_PRE1750_IUCNGET_DK_20240730.tif</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -231,7 +231,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,25 +515,25 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="223" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="105.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -569,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -604,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -612,7 +611,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -630,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -639,12 +638,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -665,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -674,12 +673,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -700,16 +699,16 @@
         <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -735,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -754,8 +753,9 @@
     <hyperlink ref="J5" r:id="rId6" xr:uid="{9D2ED58A-1BCA-4AFA-A7DB-AC11216EF831}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{6D271174-0A26-4C2B-8A49-23E0D84CB50C}"/>
     <hyperlink ref="I4" r:id="rId8" xr:uid="{38342F7C-9021-42BF-85AE-4F69340822E2}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{1C95F602-5CB3-4739-A5CA-65F036375CED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/NeapWorkflow_GET_MarineTerrestrial_Pre-1750_250m.xlsx
+++ b/NeapWorkflow_GET_MarineTerrestrial_Pre-1750_250m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new298\OneDrive - CSIRO\Code\Python\NEAP\ecosystem-typology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEDE4B-5606-489A-9BF2-B099750D1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83202C6C-8966-4F23-A8C0-4A8FF6845BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="3135" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\overlay_grids\Terrestrial_Pre1750_EPSG3577_250m.tif</t>
   </si>
   <si>
-    <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\processing\NEAP_intermediate\NVIS_PRE1750_IUCNGET_DK_20240730.tif</t>
+    <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\processing\NEAP_intermediate\NVIS_PRE1750_IUCNGET_DK_20240801.tif</t>
   </si>
 </sst>
 </file>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NeapWorkflow_GET_MarineTerrestrial_Pre-1750_250m.xlsx
+++ b/NeapWorkflow_GET_MarineTerrestrial_Pre-1750_250m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new298\OneDrive - CSIRO\Code\Python\NEAP\ecosystem-typology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu240\Downloads\ext\ecosystem-typology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83202C6C-8966-4F23-A8C0-4A8FF6845BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B18DB7C-92C3-43CC-B1A2-D1B4DB78CA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\overlay_grids\Terrestrial_Pre1750_EPSG3577_250m.tif</t>
   </si>
   <si>
-    <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\processing\NEAP_intermediate\NVIS_PRE1750_IUCNGET_DK_20240801.tif</t>
+    <t>\\fs1-cbr.nexus.csiro.au\{ev-neap}\work\extent\processing\NEAP_intermediate\NVIS_PRE1750_IUCNGET_DK_20240809.tif</t>
   </si>
 </sst>
 </file>
@@ -515,25 +515,25 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="223" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="105.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -603,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
